--- a/Notes/Zusammenfassung_Fragen.xlsx
+++ b/Notes/Zusammenfassung_Fragen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="9570"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="9570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Netzanschlusszertifizierung" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="62">
   <si>
     <t>Variante</t>
   </si>
@@ -88,9 +88,6 @@
     <t>EZE-Zertifikat</t>
   </si>
   <si>
-    <t>Bescheinigung</t>
-  </si>
-  <si>
     <t>Allgemeine Daten um Anschluss und zur EZE</t>
   </si>
   <si>
@@ -154,55 +151,61 @@
     <t>Anlagenzertifikat A</t>
   </si>
   <si>
+    <t>Antragstellung</t>
+  </si>
+  <si>
+    <t>Datenblatt zur Beurteilung der Netzrückwirkungen</t>
+  </si>
+  <si>
+    <t>Netzanschlussplanung</t>
+  </si>
+  <si>
+    <t>Errichtungsplanung</t>
+  </si>
+  <si>
+    <t>Inbetriebsetzungsauftrag</t>
+  </si>
+  <si>
+    <t>Erdungsprotokoll</t>
+  </si>
+  <si>
+    <t>Inbetriebsetzungsprotokoll für Übergabestationen</t>
+  </si>
+  <si>
+    <t>Datenblatt einer Erzeugungsanlage/ eines Speichers - Mittelspannung</t>
+  </si>
+  <si>
+    <t>Netzbetreiber-Abfragebogen</t>
+  </si>
+  <si>
+    <t>Inbetriebsetzungsprotokoll für Erzeugungsanlagen und Speicher</t>
+  </si>
+  <si>
+    <t>Inbetriebsetzungserklärung Erzeugungsanlagen / Speicher</t>
+  </si>
+  <si>
+    <t>Konformitätserklärung Erzeugungsanlagen / Speicher</t>
+  </si>
+  <si>
+    <t>Einheitenzertifikat</t>
+  </si>
+  <si>
+    <t>Komponentenzertifikat</t>
+  </si>
+  <si>
+    <t>Betriebserlaubnisverfahren</t>
+  </si>
+  <si>
+    <t>Nachweis</t>
+  </si>
+  <si>
     <t>Anlagenzertifikat B</t>
   </si>
   <si>
-    <t>Einzelnachweisverfahren (?)</t>
-  </si>
-  <si>
-    <t>Antragstellung</t>
-  </si>
-  <si>
-    <t>Datenblatt zur Beurteilung der Netzrückwirkungen</t>
-  </si>
-  <si>
-    <t>Netzanschlussplanung</t>
-  </si>
-  <si>
-    <t>Errichtungsplanung</t>
-  </si>
-  <si>
-    <t>Inbetriebsetzungsauftrag</t>
-  </si>
-  <si>
-    <t>Erdungsprotokoll</t>
-  </si>
-  <si>
-    <t>Inbetriebsetzungsprotokoll für Übergabestationen</t>
-  </si>
-  <si>
-    <t>Datenblatt einer Erzeugungsanlage/ eines Speichers - Mittelspannung</t>
-  </si>
-  <si>
-    <t>Netzbetreiber-Abfragebogen</t>
-  </si>
-  <si>
-    <t>Inbetriebsetzungsprotokoll für Erzeugungsanlagen und Speicher</t>
-  </si>
-  <si>
-    <t>Inbetriebsetzungserklärung Erzeugungsanlagen / Speicher</t>
-  </si>
-  <si>
-    <t>Konformitätserklärung Erzeugungsanlagen / Speicher</t>
-  </si>
-  <si>
-    <t>Einheitenzertifikat</t>
-  </si>
-  <si>
-    <t>Komponentenzertifikat</t>
-  </si>
-  <si>
-    <t>Betriebserlaubnisverfahren</t>
+    <t>VDE-AR-N 4105 (weil &lt; 135 kWp)</t>
+  </si>
+  <si>
+    <t>VDE-AR-N 4110 (weil MS-Netz)</t>
   </si>
 </sst>
 </file>
@@ -262,8 +265,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A1:D4" totalsRowShown="0">
-  <autoFilter ref="A1:D4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A1:D5" totalsRowShown="0">
+  <autoFilter ref="A1:D5"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Variante"/>
     <tableColumn id="4" name="NC-RfG"/>
@@ -284,7 +287,7 @@
     <tableColumn id="1" name="Nachweisverfahren"/>
     <tableColumn id="2" name="Bereich"/>
     <tableColumn id="8" name="Zertifikat"/>
-    <tableColumn id="7" name="Bescheinigung"/>
+    <tableColumn id="7" name="Nachweis"/>
     <tableColumn id="6" name="Ebene"/>
     <tableColumn id="3" name="MS - Mischpark"/>
     <tableColumn id="4" name="MS - Sonstige"/>
@@ -557,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,7 +585,7 @@
         <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -596,7 +599,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -607,28 +610,45 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -637,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,7 +684,7 @@
         <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
@@ -687,7 +707,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
@@ -713,7 +733,7 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -739,10 +759,10 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
@@ -751,10 +771,10 @@
         <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -765,7 +785,7 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
@@ -802,25 +822,25 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
         <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -828,25 +848,25 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -854,25 +874,25 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9" t="s">
         <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -880,25 +900,25 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F10" t="s">
         <v>17</v>
       </c>
       <c r="G10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -906,25 +926,25 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F11" t="s">
         <v>17</v>
       </c>
       <c r="G11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -932,25 +952,25 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F12" t="s">
         <v>17</v>
       </c>
       <c r="G12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -958,25 +978,25 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F13" t="s">
         <v>17</v>
       </c>
       <c r="G13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -984,25 +1004,25 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
         <v>39</v>
       </c>
-      <c r="D14" t="s">
-        <v>40</v>
-      </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F14" t="s">
         <v>17</v>
       </c>
       <c r="G14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1010,25 +1030,25 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F15" t="s">
         <v>17</v>
       </c>
       <c r="G15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1036,339 +1056,339 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F16" t="s">
         <v>17</v>
       </c>
       <c r="G16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
       </c>
       <c r="H17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F18" t="s">
         <v>17</v>
       </c>
       <c r="H18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F19" t="s">
         <v>17</v>
       </c>
       <c r="H19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D20" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F20" t="s">
         <v>17</v>
       </c>
       <c r="H20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F21" t="s">
         <v>17</v>
       </c>
       <c r="H21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D22" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F22" t="s">
         <v>17</v>
       </c>
       <c r="H22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F23" t="s">
         <v>17</v>
       </c>
       <c r="H23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D24" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F24" t="s">
         <v>17</v>
       </c>
       <c r="H24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D25" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F25" t="s">
         <v>17</v>
       </c>
       <c r="H25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D26" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F26" t="s">
         <v>17</v>
       </c>
       <c r="H26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D27" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F27" t="s">
         <v>17</v>
       </c>
       <c r="H27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D28" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F28" t="s">
         <v>17</v>
       </c>
       <c r="H28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D29" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F29" t="s">
         <v>17</v>
       </c>
       <c r="H29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D30" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F30" t="s">
         <v>17</v>
       </c>
       <c r="H30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F31" t="s">
         <v>17</v>
       </c>
       <c r="H31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D32" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F32" t="s">
         <v>17</v>
       </c>
       <c r="H32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
